--- a/biology/Médecine/1737_en_santé_et_médecine/1737_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1737_en_santé_et_médecine/1737_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1737_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1737_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1737 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1737_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1737_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Allemagne
-17 septembre : inauguration de l'Université de Göttingen[1].
+17 septembre : inauguration de l'Université de Göttingen.
 France
-Dunkerque reçoit ses lettres patentes pour l'ouverture d'un hôpital général[2].
+Dunkerque reçoit ses lettres patentes pour l'ouverture d'un hôpital général.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1737_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1737_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médailles de la Royal Society
-Médaille Copley : John Belchier, médecin, pour l'observation des tissus en utilisant des teintures[3].</t>
+Médaille Copley : John Belchier, médecin, pour l'observation des tissus en utilisant des teintures.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1737_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1737_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,13 +592,15 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4 janvier : Louis-Bernard Guyton-Morveau (mort en 1816), chimiste, jurisconsulte et homme politique français, très impliqué en santé publique[4].
-6 janvier : Philibert Chabert (mort en 1814), vétérinaire français[5].
-5 août : Johann Friedrich Struensee (mort en 1772), médecin et homme politique danois d'origine allemande[6].
-12 août : Antoine Parmentier (mort en 1813), pharmacien, agronome, nutritionniste et hygiéniste français[7].
-9 septembre : Luigi Galvani (mort en 1798), physicien, professeur d'anatomie et médecin italien[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4 janvier : Louis-Bernard Guyton-Morveau (mort en 1816), chimiste, jurisconsulte et homme politique français, très impliqué en santé publique.
+6 janvier : Philibert Chabert (mort en 1814), vétérinaire français.
+5 août : Johann Friedrich Struensee (mort en 1772), médecin et homme politique danois d'origine allemande.
+12 août : Antoine Parmentier (mort en 1813), pharmacien, agronome, nutritionniste et hygiéniste français.
+9 septembre : Luigi Galvani (mort en 1798), physicien, professeur d'anatomie et médecin italien.</t>
         </is>
       </c>
     </row>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1737_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1737_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,9 +628,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7 mai : Giovanni Domenico Santorini (né en 1681), anatomiste italien, ayant laissé son nom à plusieurs structures anatomiques[9].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>7 mai : Giovanni Domenico Santorini (né en 1681), anatomiste italien, ayant laissé son nom à plusieurs structures anatomiques.</t>
         </is>
       </c>
     </row>
